--- a/system-service/src/main/resources/excel/generate.xlsx
+++ b/system-service/src/main/resources/excel/generate.xlsx
@@ -4,74 +4,257 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="示例表" sheetId="1" r:id="rId1"/>
+    <sheet name="用户表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+  <si>
+    <t>enterprice_id</t>
+  </si>
+  <si>
+    <t>表名（填写第一行即可）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名(主键第一行）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名(主键第一行）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmt_create</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmt_modified</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一次更新时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>telephone</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
   <si>
     <t>apply</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否覆盖表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>apply_id</t>
-  </si>
-  <si>
-    <t>enterprice_id</t>
-  </si>
-  <si>
-    <t>表名（填写第一行即可）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否覆盖表(填“是”会删除原表，包括数据)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>是否为空（Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否唯一（Y/N）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>表备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段名(主键第一行）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>长度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为空</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请表</t>
+    <t>姓名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wx_openid</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>bigint</t>
+    <t>微信openid</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>N</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
+    <t>appid</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -79,21 +262,49 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -104,22 +315,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <color theme="3" tint="-0.499984740745262"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -138,7 +334,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -161,18 +357,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -183,8 +393,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -483,78 +728,127 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="8.25" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="8.375" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="24.25" customWidth="1"/>
+    <col min="11" max="11" width="9.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="6" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="D11" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -562,30 +856,273 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <cols>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="9.25" customWidth="1"/>
+    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="22.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="J4" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="11"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="14">
+        <v>32</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="10"/>
+      <c r="J5" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="9">
+        <v>11</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="J6" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="9">
+        <v>16</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="J7" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="9">
+        <v>64</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="J8" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="9">
+        <v>64</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="9">
+        <v>64</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="J10" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="9">
+        <v>255</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="J11" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="D12" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="23">
+        <v>32</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="D13" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>